--- a/data/results/raw_model_comparison/A2C_testing.xlsx
+++ b/data/results/raw_model_comparison/A2C_testing.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Github\Github\Research-project\data\results\raw_model_comparison\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C838AB28-BE35-41D2-8EA7-6EBD02BA1F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Final Value</t>
+  </si>
+  <si>
+    <t>Annualized Return</t>
+  </si>
+  <si>
+    <t>Sharpe Ratio</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +69,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,174 +393,285 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>10</v>
       </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Final Value</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2611931.057944732</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2611931.0579447318</v>
+      </c>
+      <c r="D2">
         <v>1432780.398105257</v>
       </c>
-      <c r="E2" t="n">
-        <v>2653763.1375828</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2204110.674864162</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2">
+        <v>2653763.1375827999</v>
+      </c>
+      <c r="F2">
+        <v>2204110.6748641622</v>
+      </c>
+      <c r="G2">
         <v>1864115.87484144</v>
       </c>
-      <c r="H2" t="n">
-        <v>2342942.198396314</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2696462.338436579</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2">
+        <v>2342942.1983963139</v>
+      </c>
+      <c r="I2">
+        <v>2696462.3384365789</v>
+      </c>
+      <c r="J2">
         <v>2662319.626438532</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>2634568.449186048</v>
       </c>
-      <c r="L2" t="n">
-        <v>1938315.427163049</v>
+      <c r="L2">
+        <v>1938315.4271630491</v>
+      </c>
+      <c r="M2">
+        <v>4036980.767980576</v>
+      </c>
+      <c r="N2">
+        <v>2832535.474069525</v>
+      </c>
+      <c r="O2">
+        <v>2829177.804409605</v>
+      </c>
+      <c r="P2">
+        <v>2653440.8498880379</v>
+      </c>
+      <c r="Q2">
+        <v>2777188.8745599538</v>
+      </c>
+      <c r="R2">
+        <v>2647881.4573054789</v>
+      </c>
+      <c r="S2">
+        <v>2343374.3800482689</v>
+      </c>
+      <c r="T2">
+        <v>2571570.8161983602</v>
+      </c>
+      <c r="U2">
+        <v>2862499.8098319238</v>
+      </c>
+      <c r="V2">
+        <v>2625618.927545486</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Annualized Return</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3731314815244011</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.126113755825894</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3803562028964014</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2982594402123777</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.37313148152440112</v>
+      </c>
+      <c r="D3">
+        <v>0.12611375582589399</v>
+      </c>
+      <c r="E3">
+        <v>0.38035620289640137</v>
+      </c>
+      <c r="F3">
+        <v>0.29825944021237771</v>
+      </c>
+      <c r="G3">
         <v>0.228373675301935</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.324716936530943</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.3876524464506175</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="H3">
+        <v>0.32471693653094302</v>
+      </c>
+      <c r="I3">
+        <v>0.38765244645061753</v>
+      </c>
+      <c r="J3">
         <v>0.3818245620298053</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.3770506741044899</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="K3">
+        <v>0.37705067410448989</v>
+      </c>
+      <c r="L3">
         <v>0.2443116776511309</v>
       </c>
+      <c r="M3">
+        <v>0.58549730858787674</v>
+      </c>
+      <c r="N3">
+        <v>0.41040006704177379</v>
+      </c>
+      <c r="O3">
+        <v>0.40984766738300737</v>
+      </c>
+      <c r="P3">
+        <v>0.38030083393165559</v>
+      </c>
+      <c r="Q3">
+        <v>0.40123791738497649</v>
+      </c>
+      <c r="R3">
+        <v>0.37934502159494449</v>
+      </c>
+      <c r="S3">
+        <v>0.32479763717826499</v>
+      </c>
+      <c r="T3">
+        <v>0.36608713007810939</v>
+      </c>
+      <c r="U3">
+        <v>0.41531045128215882</v>
+      </c>
+      <c r="V3">
+        <v>0.37550395684664922</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sharpe Ratio</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7344714135182343</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3744189497010451</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.73447141351823431</v>
+      </c>
+      <c r="D4">
+        <v>0.37441894970104511</v>
+      </c>
+      <c r="E4">
         <v>0.7279382244053062</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.6404761907231449</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.5686414845238261</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7761829686172171</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7651085933755465</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7397120613736515</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.727116118138832</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.8620451443332039</v>
+      <c r="F4">
+        <v>0.64047619072314488</v>
+      </c>
+      <c r="G4">
+        <v>0.56864148452382612</v>
+      </c>
+      <c r="H4">
+        <v>0.77618296861721714</v>
+      </c>
+      <c r="I4">
+        <v>0.76510859337554649</v>
+      </c>
+      <c r="J4">
+        <v>0.73971206137365153</v>
+      </c>
+      <c r="K4">
+        <v>0.72711611813883203</v>
+      </c>
+      <c r="L4">
+        <v>0.86204514433320389</v>
+      </c>
+      <c r="M4">
+        <v>1.2135138512419199</v>
+      </c>
+      <c r="N4">
+        <v>0.99436312541751204</v>
+      </c>
+      <c r="O4">
+        <v>0.81670006557250896</v>
+      </c>
+      <c r="P4">
+        <v>0.72765005859179155</v>
+      </c>
+      <c r="Q4">
+        <v>0.83388345943853959</v>
+      </c>
+      <c r="R4">
+        <v>0.73364802111221883</v>
+      </c>
+      <c r="S4">
+        <v>0.78823732882351949</v>
+      </c>
+      <c r="T4">
+        <v>1.1875312027528939</v>
+      </c>
+      <c r="U4">
+        <v>1.0785569612751471</v>
+      </c>
+      <c r="V4">
+        <v>0.76025890322719136</v>
       </c>
     </row>
   </sheetData>
